--- a/Data sheet.xlsx
+++ b/Data sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Videos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7335" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13915,7 +13915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -14157,7 +14157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E14:Q21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
